--- a/Banco Central/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Serie</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -545,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,6 +1732,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>300000</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>200000</v>
+      </c>
+      <c r="C54">
+        <v>366000</v>
+      </c>
+      <c r="D54">
+        <v>100000</v>
+      </c>
+      <c r="E54">
+        <v>80000</v>
+      </c>
+      <c r="F54">
+        <v>20000</v>
+      </c>
+      <c r="G54">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>200000</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Serie</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,6 +1783,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>200000</v>
+      </c>
+      <c r="C56">
+        <v>431000</v>
+      </c>
+      <c r="D56">
+        <v>200000</v>
+      </c>
+      <c r="E56">
+        <v>189000</v>
+      </c>
+      <c r="F56">
+        <v>11000</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>200000</v>
+      </c>
+      <c r="C57">
+        <v>321000</v>
+      </c>
+      <c r="D57">
+        <v>100000</v>
+      </c>
+      <c r="E57">
+        <v>89000</v>
+      </c>
+      <c r="F57">
+        <v>11000</v>
+      </c>
+      <c r="G57">
+        <v>1.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
